--- a/test/test scripts.xlsx
+++ b/test/test scripts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e201dee62297629a/Documents/Programming/JavaScript/quill-blot-formatter-2/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="961" documentId="8_{40C656A7-4689-4B40-A0A8-5A2B32191517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{629FB2ED-6EC8-4BA3-A990-F235A3B8D18B}"/>
+  <xr:revisionPtr revIDLastSave="978" documentId="8_{40C656A7-4689-4B40-A0A8-5A2B32191517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ACFB71D-0A3C-46C9-A30F-AC4D08F61AB4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B66D61C3-3FAE-4EC4-91B8-134A01370EF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{B66D61C3-3FAE-4EC4-91B8-134A01370EF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Align" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="274">
   <si>
     <t>Action</t>
   </si>
@@ -836,15 +836,9 @@
     <t>With both editor and document scrollable and in overflow condition, and both in scroll bottom position (or scrolled down at least), scroll up with touch drag on overlay</t>
   </si>
   <si>
-    <t>Click image</t>
-  </si>
-  <si>
     <t>Confirm overlay exactly overlays image</t>
   </si>
   <si>
-    <t>Click video</t>
-  </si>
-  <si>
     <t>Confirm overlay exactly overlays video</t>
   </si>
   <si>
@@ -894,6 +888,24 @@
   </si>
   <si>
     <t>Confirm blot resizes correctly.</t>
+  </si>
+  <si>
+    <t>Click image when overlay inactive</t>
+  </si>
+  <si>
+    <t>Click video when overlay inactive</t>
+  </si>
+  <si>
+    <t>Click image when overlay active on other image</t>
+  </si>
+  <si>
+    <t>Click image when overlay active on video</t>
+  </si>
+  <si>
+    <t>Click video when overlay active on other video</t>
+  </si>
+  <si>
+    <t>Click video when overlay active on image</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1204,18 +1216,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1227,12 +1227,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1252,22 +1246,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1283,10 +1291,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1609,7 +1613,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1620,11 +1624,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.5">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2"/>
@@ -1641,11 +1645,11 @@
       <c r="B4"/>
     </row>
     <row r="5" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -2199,11 +2203,11 @@
       <c r="B79" s="12"/>
     </row>
     <row r="80" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="36" t="s">
+      <c r="A80" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="36"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="50"/>
     </row>
     <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
@@ -2560,13 +2564,13 @@
       </c>
     </row>
     <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="48" t="s">
+      <c r="A128" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="B128" s="49" t="s">
+      <c r="B128" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C128" s="50"/>
+      <c r="C128" s="44"/>
     </row>
     <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
@@ -2978,11 +2982,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -3950,13 +3954,12 @@
       <c r="C137" s="32"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="51"/>
-      <c r="B138" s="51"/>
-      <c r="C138" s="56"/>
+      <c r="A138" s="25"/>
+      <c r="B138" s="25"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B139" s="25"/>
     </row>
@@ -3977,10 +3980,10 @@
     </row>
     <row r="142" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B142" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C142" s="32"/>
     </row>
@@ -4009,13 +4012,13 @@
       </c>
     </row>
     <row r="147" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="48" t="s">
+      <c r="A147" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="B147" s="49" t="s">
+      <c r="B147" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="C147" s="50"/>
+      <c r="C147" s="44"/>
     </row>
     <row r="148" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
@@ -4266,18 +4269,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="25"/>
@@ -4418,18 +4421,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="25"/>
@@ -4533,11 +4536,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -4545,11 +4548,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
@@ -4559,22 +4562,22 @@
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="53"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="38" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4582,60 +4585,60 @@
       <c r="A9" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="43"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="43"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="43"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4649,11 +4652,11 @@
       <c r="D15" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
@@ -4661,13 +4664,13 @@
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="41" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4675,7 +4678,7 @@
       <c r="A20" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C20" s="7"/>
@@ -4684,7 +4687,7 @@
       <c r="A21" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C21" s="7"/>
@@ -4693,7 +4696,7 @@
       <c r="A22" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C22" s="7"/>
@@ -4702,7 +4705,7 @@
       <c r="A23" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C23" s="7"/>
@@ -4711,7 +4714,7 @@
       <c r="A24" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C24" s="7"/>
@@ -4720,7 +4723,7 @@
       <c r="A25" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C25" s="7"/>
@@ -4729,7 +4732,7 @@
       <c r="A26" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C26" s="7"/>
@@ -4744,17 +4747,17 @@
       <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
@@ -4762,13 +4765,13 @@
       <c r="C30" s="21"/>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="41" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4776,7 +4779,7 @@
       <c r="A32" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C32" s="7"/>
@@ -4785,7 +4788,7 @@
       <c r="A33" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C33" s="7"/>
@@ -4794,7 +4797,7 @@
       <c r="A34" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C34" s="7"/>
@@ -4803,7 +4806,7 @@
       <c r="A35" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C35" s="7"/>
@@ -4812,7 +4815,7 @@
       <c r="A36" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C36" s="7"/>
@@ -4821,7 +4824,7 @@
       <c r="A37" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C37" s="7"/>
@@ -4830,7 +4833,7 @@
       <c r="A38" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C38" s="7"/>
@@ -4845,17 +4848,17 @@
       <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
@@ -4869,30 +4872,30 @@
       <c r="B43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="C44" s="50"/>
+      <c r="C44" s="44"/>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="45" t="s">
         <v>228</v>
       </c>
       <c r="C45" s="31"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="48" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4903,24 +4906,24 @@
       <c r="B49" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="48" t="s">
+      <c r="A50" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="C50" s="50"/>
+      <c r="C50" s="44"/>
     </row>
     <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="25" t="s">
         <v>234</v>
       </c>
       <c r="C51" s="30"/>
@@ -4929,7 +4932,7 @@
       <c r="A52" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="47" t="s">
         <v>232</v>
       </c>
       <c r="C52" s="7"/>
@@ -4944,7 +4947,7 @@
       <c r="C53" s="31"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="48" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4955,24 +4958,24 @@
       <c r="B57" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="48" t="s">
+      <c r="A58" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="C58" s="50"/>
+      <c r="C58" s="44"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="25" t="s">
         <v>240</v>
       </c>
       <c r="C59" s="30"/>
@@ -4981,7 +4984,7 @@
       <c r="A60" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B60" s="47" t="s">
         <v>232</v>
       </c>
       <c r="C60" s="7"/>
@@ -5010,10 +5013,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D58501-C84A-499D-A961-0FDD5DD37E34}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5023,18 +5026,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
@@ -5044,294 +5047,334 @@
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="53"/>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="38" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B13" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="43" t="s">
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" s="43" t="s">
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B17" s="43" t="s">
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B18" s="43" t="s">
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B20" s="43" t="s">
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="C34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C36" s="10"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
